--- a/Data/Transitions/19451958Translation.xlsx
+++ b/Data/Transitions/19451958Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="754">
   <si>
     <t>id</t>
   </si>
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -100,7 +100,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -109,7 +109,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927088692332578}</t>
+    <t>{49.0: 0.8862224855942327}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -163,7 +163,7 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837, 271.0: 0.0016780179646629157}</t>
+    <t>{79.0: 0.9993761696818465, 271.0: 0.0016780179646629157}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -196,7 +196,7 @@
     <t>{91.0: 0.9618488000094441, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 1.0, 91.0: 0.038151199990555905, 858.0: 0.11116858391946506}</t>
+    <t>{92.0: 1.0, 91.0: 0.038151199990555905, 858.0: 0.10346854860717557}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,7 +208,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9760645363772565}</t>
+    <t>{97.0: 0.9760863386099149}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -232,10 +232,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.5983649330318316}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.40163506696816836, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -256,10 +256,10 @@
     <t>{142.0: 0.9962324013484037}</t>
   </si>
   <si>
-    <t>{144.0: 0.04837837837837838}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9516216216216217}</t>
+    <t>{144.0: 0.0447239110518864}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9552760889481136}</t>
   </si>
   <si>
     <t>{145.0: 0.9991249492133778}</t>
@@ -328,7 +328,7 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9847554038680318, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
+    <t>{178.0: 0.9847554038680318, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
   </si>
   <si>
     <t>{179.0: 1.0, 180.0: 0.011662928548542133}</t>
@@ -349,16 +349,16 @@
     <t>{184.0: 0.9937868903386144}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
   </si>
   <si>
     <t>{202.0: 0.2984619464333068, 307.0: 1.0}</t>
   </si>
   <si>
-    <t>{203.0: 0.9011118598382749}</t>
+    <t>{203.0: 0.9116096973347387}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
@@ -406,10 +406,10 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
   </si>
   <si>
     <t>{222.0: 1.0}</t>
@@ -418,7 +418,7 @@
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10729113076674225}</t>
+    <t>{49.0: 0.11377751440576732}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,7 +457,7 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -469,16 +469,19 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 0.6871389480085133}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -499,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -523,7 +526,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 1.0, 79.0: 0.0006519967400162999}</t>
+    <t>{262.0: 1.0, 79.0: 0.0006238303181534623}</t>
   </si>
   <si>
     <t>{263.0: 1.0}</t>
@@ -532,7 +535,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.0657712818487063}</t>
+    <t>{400.0: 0.061638130495141136}</t>
   </si>
   <si>
     <t>{267.0: 1.0, 887.0: 0.0039276426066777795}</t>
@@ -580,7 +583,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.057003881354220694}</t>
+    <t>{285.0: 1.0, 311.0: 0.08782941840400513}</t>
   </si>
   <si>
     <t>{286.0: 1.0, 909.0: 0.05257719916943447, 306.0: 0.00631396710626814, 908.0: 0.04976895689720476, 788.0: 0.0027733768944140946}</t>
@@ -646,7 +649,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{312.0: 1.0, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688, 226.0: 0.0002714072465734835}</t>
@@ -667,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -676,7 +679,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.9342287181512937}</t>
+    <t>{400.0: 0.9383618695048589}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379}</t>
@@ -688,7 +691,7 @@
     <t>{403.0: 0.9933104321099259}</t>
   </si>
   <si>
-    <t>{404.0: 0.3609253569492138, 907.0: 0.3609253569492138}</t>
+    <t>{404.0: 0.5163452332102312, 907.0: 0.5163452332102312}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -709,7 +712,7 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6390746430507862, 907.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.4836547667897688, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -739,7 +742,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
+    <t>{597.0: 0.13779986025929664}</t>
   </si>
   <si>
     <t>{423.0: 0.998298837538985}</t>
@@ -754,10 +757,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.26721824686940965, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7327817531305904}</t>
+    <t>{428.0: 0.21205489175440673, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7879451082455933}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -847,7 +850,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023935463622743416}</t>
+    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023913661390085057}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
@@ -892,10 +895,10 @@
     <t>{507.0: 1.0}</t>
   </si>
   <si>
-    <t>{529.0: 1.0, 530.0: 0.016173856462781022, 680.0: 0.0007046030419586122, 481.0: 1.3057803072405517e-05}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.983826143537219}</t>
+    <t>{529.0: 1.0, 530.0: 0.016548865747358192, 680.0: 0.0007046030419586122, 481.0: 1.3057803072405517e-05}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9834511342526419}</t>
   </si>
   <si>
     <t>{531.0: 1.0}</t>
@@ -916,7 +919,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -928,10 +931,10 @@
     <t>{540.0: 1.0}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -967,7 +970,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -985,7 +988,7 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
+    <t>{573.0: 0.5470310513891411}</t>
   </si>
   <si>
     <t>{580.0: 0.9374294316898758, 728.0: 0.002418704649287826}</t>
@@ -997,7 +1000,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.45294474802671525}</t>
+    <t>{583.0: 0.5739952718676123}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -1015,7 +1018,7 @@
     <t>{588.0: 1.0}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.013299521821319988}</t>
+    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.010654858616757608}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1024,16 +1027,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 85.0: 0.005416860752281957, 492.0: 1.8647119341563785e-05}</t>
+    <t>{593.0: 0.49682353666810586}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 85.0: 0.005416860752281957, 492.0: 1.8647119341563785e-05}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1066,7 +1069,7 @@
     <t>{607.0: 1.0, 276.0: 0.0001938548027527382}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 610.0: 0.46334982591167306}</t>
@@ -1123,7 +1126,7 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
+    <t>{627.0: 0.432346990389479}</t>
   </si>
   <si>
     <t>{629.0: 1.0}</t>
@@ -1153,13 +1156,13 @@
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9963087013294778, 481.0: 0.018463733544381404}</t>
   </si>
   <si>
-    <t>{681.0: 0.9820504535674003, 171.0: 0.004749218116529595, 90.0: 0.0007064997981429148, 420.0: 1.2245688894066165e-06}</t>
+    <t>{681.0: 0.9819650489176246, 171.0: 0.004749218116529595, 90.0: 0.0007064997981429148, 420.0: 1.2245688894066165e-06}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
@@ -1207,10 +1210,10 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.2012909422220707}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7987090577779293}</t>
+    <t>{698.0: 0.43055025898790067}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5694497410120993}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1264,16 +1267,16 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.5470552519732848}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.5631107081696384}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.42358977000904163, 145.0: 0.00021902629504129582, 544.0: 0.0008557980316645272, 975.0: 6.076672414185991e-07}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.4260047281323877}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.6499878944395125}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.3393572469437298, 145.0: 0.00021902629504129582, 544.0: 0.0008557980316645272, 975.0: 6.076672414185991e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1372,7 +1375,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9958950969213227, 889.0: 0.5748804429901837}</t>
+    <t>{785.0: 0.9958950969213227, 889.0: 0.2574101205905556}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1435,7 +1438,7 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9232439017315892}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9228851136919364}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
@@ -1465,7 +1468,7 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.06415696705170477}</t>
+    <t>{858.0: 0.3088232097973241}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1474,7 +1477,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6808248608561583}</t>
+    <t>{861.0: 0.6849891000612596}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1495,7 +1498,7 @@
     <t>{888.0: 0.3122645438196057}</t>
   </si>
   <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1531,10 +1534,10 @@
     <t>{909.0: 0.9474228008305655}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.3191751391438416}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.3150108999387404}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1615,7 +1618,7 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07675609826841082}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9880743598737285}</t>
@@ -1660,13 +1663,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.3771760347955267}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27784056424541764}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.09888814016172506}</t>
+    <t>{992.0: 0.4333451572549258}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.22167144178601855}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.08839030266526125}</t>
   </si>
   <si>
     <t>{4.0: 0.9952675646159447, 496.0: 0.004732435384055333}</t>
@@ -1786,7 +1789,7 @@
     <t>{173.0: 0.952233468067646, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.00800668517061382, 831.0: 0.001466275659824047}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
   </si>
   <si>
     <t>{179.0: 0.9929281939695369, 180.0: 0.007071806030463164}</t>
@@ -1837,6 +1840,9 @@
     <t>{238.0: 0.9953091684434967, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{246.0: 0.9994262765347103, 46.0: 0.0005647897491488099, 681.0: 8.115747128531286e-06, 741.0: 8.179690123891223e-07}</t>
   </si>
   <si>
@@ -1858,7 +1864,7 @@
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328585, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.9901029295328581, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937941, 167.0: 0.0005680531756420232, 596.0: 0.000787353930563805}</t>
@@ -1897,9 +1903,6 @@
     <t>{312.0: 0.9410149512359554, 5.0: 0.053001830257361125, 759.0: 0.005269187803363386, 226.0: 0.0007140307033202426}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506637, 532.0: 0.06500628755064972, 560.0: 0.026233058544082716}</t>
   </si>
   <si>
@@ -2161,7 +2164,7 @@
     <t>{781.0: 0.9992775312209722, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
@@ -2260,7 +2263,7 @@
     <t>{940.0: 0.9931610942249242, 785.0: 0.006838905775075989}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.16133961771190689, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.7700641420657477, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -2630,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C549"/>
+  <dimension ref="A1:C550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2677,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2688,7 +2691,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2699,7 +2702,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2710,7 +2713,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2754,7 +2757,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2776,7 +2779,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2798,7 +2801,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2831,7 +2834,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2853,7 +2856,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2930,7 +2933,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2963,7 +2966,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3095,7 +3098,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3117,7 +3120,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3161,7 +3164,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3183,7 +3186,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3216,7 +3219,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3227,7 +3230,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3238,7 +3241,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3249,7 +3252,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3260,7 +3263,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3271,7 +3274,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3282,7 +3285,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3326,7 +3329,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3337,7 +3340,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3348,7 +3351,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3414,7 +3417,7 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3425,7 +3428,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3436,7 +3439,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3447,7 +3450,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3491,7 +3494,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3502,7 +3505,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3513,7 +3516,7 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3524,7 +3527,7 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3557,7 +3560,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3590,7 +3593,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3601,7 +3604,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3634,7 +3637,7 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3656,7 +3659,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3689,7 +3692,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3711,7 +3714,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3766,7 +3769,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3777,7 +3780,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3788,7 +3791,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3832,7 +3835,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3843,7 +3846,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3854,7 +3857,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3865,7 +3868,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3876,7 +3879,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3909,7 +3912,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3920,7 +3923,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3953,7 +3956,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3975,7 +3978,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4052,7 +4055,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4063,7 +4066,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4096,7 +4099,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4118,7 +4121,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4162,7 +4165,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4206,7 +4209,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4239,7 +4242,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4277,18 +4280,18 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>608</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4299,40 +4302,40 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>594</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>609</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4343,7 +4346,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4354,7 +4357,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4365,7 +4368,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4376,7 +4379,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4387,29 +4390,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>608</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>610</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4420,7 +4423,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4431,7 +4434,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4442,7 +4445,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4453,51 +4456,51 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>609</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>611</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>610</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>170</v>
+        <v>612</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4508,62 +4511,62 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>611</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>174</v>
+        <v>614</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>613</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>615</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4574,7 +4577,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4585,51 +4588,51 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>614</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>618</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4640,40 +4643,40 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>617</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>620</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4684,40 +4687,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>619</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>622</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4728,7 +4731,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4739,7 +4742,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4750,7 +4753,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4761,7 +4764,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4772,7 +4775,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4783,7 +4786,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4794,51 +4797,51 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>621</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>625</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4849,29 +4852,29 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>624</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>626</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4882,29 +4885,29 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>625</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>627</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4915,7 +4918,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4926,40 +4929,40 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>595</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>628</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4970,7 +4973,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4981,7 +4984,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4992,7 +4995,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -5003,62 +5006,62 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>627</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>219</v>
+        <v>629</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>611</v>
+        <v>220</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -5069,7 +5072,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -5080,7 +5083,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -5091,18 +5094,18 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>225</v>
+        <v>633</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -5113,7 +5116,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -5124,7 +5127,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5135,7 +5138,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -5146,7 +5149,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B229" t="s">
         <v>230</v>
@@ -5157,51 +5160,51 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B230" t="s">
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>633</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B231" t="s">
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>232</v>
+        <v>634</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B232" t="s">
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>634</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B233" t="s">
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>234</v>
+        <v>635</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B234" t="s">
         <v>235</v>
@@ -5212,7 +5215,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B235" t="s">
         <v>236</v>
@@ -5223,7 +5226,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B236" t="s">
         <v>237</v>
@@ -5234,7 +5237,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B237" t="s">
         <v>238</v>
@@ -5245,40 +5248,40 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B238" t="s">
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>635</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B239" t="s">
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>240</v>
+        <v>636</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B240" t="s">
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>636</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B241" t="s">
         <v>242</v>
@@ -5289,18 +5292,18 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B242" t="s">
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>243</v>
+        <v>638</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B243" t="s">
         <v>244</v>
@@ -5311,7 +5314,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B244" t="s">
         <v>245</v>
@@ -5322,18 +5325,18 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B245" t="s">
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>638</v>
+        <v>246</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B246" t="s">
         <v>247</v>
@@ -5344,18 +5347,18 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B247" t="s">
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>248</v>
+        <v>640</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B248" t="s">
         <v>249</v>
@@ -5366,7 +5369,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B249" t="s">
         <v>250</v>
@@ -5377,7 +5380,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B250" t="s">
         <v>251</v>
@@ -5388,7 +5391,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B251" t="s">
         <v>252</v>
@@ -5399,18 +5402,18 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B252" t="s">
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>640</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B253" t="s">
         <v>254</v>
@@ -5421,18 +5424,18 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B254" t="s">
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>255</v>
+        <v>642</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B255" t="s">
         <v>256</v>
@@ -5443,7 +5446,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B256" t="s">
         <v>257</v>
@@ -5454,7 +5457,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B257" t="s">
         <v>258</v>
@@ -5465,7 +5468,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B258" t="s">
         <v>259</v>
@@ -5476,7 +5479,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B259" t="s">
         <v>260</v>
@@ -5487,7 +5490,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B260" t="s">
         <v>261</v>
@@ -5498,7 +5501,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="B261" t="s">
         <v>262</v>
@@ -5509,7 +5512,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B262" t="s">
         <v>263</v>
@@ -5520,73 +5523,73 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B263" t="s">
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>642</v>
+        <v>264</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B264" t="s">
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>265</v>
+        <v>643</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B265" t="s">
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>643</v>
+        <v>266</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B266" t="s">
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>267</v>
+        <v>644</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B267" t="s">
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>644</v>
+        <v>268</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B268" t="s">
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>269</v>
+        <v>645</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B269" t="s">
         <v>270</v>
@@ -5597,7 +5600,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B270" t="s">
         <v>271</v>
@@ -5608,7 +5611,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B271" t="s">
         <v>272</v>
@@ -5619,7 +5622,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B272" t="s">
         <v>273</v>
@@ -5630,29 +5633,29 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B273" t="s">
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>645</v>
+        <v>274</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B274" t="s">
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>275</v>
+        <v>646</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B275" t="s">
         <v>276</v>
@@ -5663,18 +5666,18 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B276" t="s">
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>646</v>
+        <v>277</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B277" t="s">
         <v>278</v>
@@ -5685,18 +5688,18 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B278" t="s">
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>279</v>
+        <v>648</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B279" t="s">
         <v>280</v>
@@ -5707,40 +5710,40 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B280" t="s">
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>648</v>
+        <v>281</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B281" t="s">
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>282</v>
+        <v>649</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B282" t="s">
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>649</v>
+        <v>283</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B283" t="s">
         <v>284</v>
@@ -5751,40 +5754,40 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B284" t="s">
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>285</v>
+        <v>651</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B285" t="s">
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>651</v>
+        <v>286</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B286" t="s">
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>287</v>
+        <v>652</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B287" t="s">
         <v>288</v>
@@ -5795,29 +5798,29 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B288" t="s">
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>652</v>
+        <v>289</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B289" t="s">
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>290</v>
+        <v>653</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B290" t="s">
         <v>291</v>
@@ -5828,18 +5831,18 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B291" t="s">
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>653</v>
+        <v>292</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B292" t="s">
         <v>293</v>
@@ -5850,62 +5853,62 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B293" t="s">
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>294</v>
+        <v>655</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B294" t="s">
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>655</v>
+        <v>295</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B295" t="s">
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>296</v>
+        <v>656</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B296" t="s">
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>656</v>
+        <v>297</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B297" t="s">
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>298</v>
+        <v>657</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B298" t="s">
         <v>299</v>
@@ -5916,29 +5919,29 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B299" t="s">
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>657</v>
+        <v>300</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B300" t="s">
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>301</v>
+        <v>658</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B301" t="s">
         <v>302</v>
@@ -5949,7 +5952,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B302" t="s">
         <v>303</v>
@@ -5960,18 +5963,18 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B303" t="s">
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>658</v>
+        <v>304</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B304" t="s">
         <v>305</v>
@@ -5982,51 +5985,51 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B305" t="s">
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>306</v>
+        <v>660</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B306" t="s">
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>660</v>
+        <v>307</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B307" t="s">
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>308</v>
+        <v>661</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="B308" t="s">
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>661</v>
+        <v>309</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B309" t="s">
         <v>310</v>
@@ -6037,7 +6040,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B310" t="s">
         <v>311</v>
@@ -6048,18 +6051,18 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B311" t="s">
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>312</v>
+        <v>664</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B312" t="s">
         <v>313</v>
@@ -6070,7 +6073,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B313" t="s">
         <v>314</v>
@@ -6081,7 +6084,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B314" t="s">
         <v>315</v>
@@ -6092,7 +6095,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B315" t="s">
         <v>316</v>
@@ -6103,18 +6106,18 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B316" t="s">
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>664</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B317" t="s">
         <v>318</v>
@@ -6125,18 +6128,18 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B318" t="s">
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>319</v>
+        <v>666</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B319" t="s">
         <v>320</v>
@@ -6147,7 +6150,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B320" t="s">
         <v>321</v>
@@ -6158,51 +6161,51 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B321" t="s">
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>666</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B322" t="s">
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B323" t="s">
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B324" t="s">
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>325</v>
+        <v>668</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B325" t="s">
         <v>326</v>
@@ -6213,51 +6216,51 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B326" t="s">
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>668</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B327" t="s">
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B328" t="s">
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>669</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B329" t="s">
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>330</v>
+        <v>670</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B330" t="s">
         <v>331</v>
@@ -6268,7 +6271,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B331" t="s">
         <v>332</v>
@@ -6279,29 +6282,29 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B332" t="s">
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>670</v>
+        <v>333</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B333" t="s">
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>334</v>
+        <v>671</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B334" t="s">
         <v>335</v>
@@ -6312,18 +6315,18 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B335" t="s">
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>671</v>
+        <v>336</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B336" t="s">
         <v>337</v>
@@ -6334,40 +6337,40 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B337" t="s">
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>338</v>
+        <v>673</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B338" t="s">
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>636</v>
+        <v>339</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B339" t="s">
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>673</v>
+        <v>637</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B340" t="s">
         <v>341</v>
@@ -6378,18 +6381,18 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B341" t="s">
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>342</v>
+        <v>675</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B342" t="s">
         <v>343</v>
@@ -6400,7 +6403,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B343" t="s">
         <v>344</v>
@@ -6411,7 +6414,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B344" t="s">
         <v>345</v>
@@ -6422,7 +6425,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B345" t="s">
         <v>346</v>
@@ -6433,7 +6436,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B346" t="s">
         <v>347</v>
@@ -6444,18 +6447,18 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B347" t="s">
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>675</v>
+        <v>348</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B348" t="s">
         <v>349</v>
@@ -6466,7 +6469,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B349" t="s">
         <v>350</v>
@@ -6477,7 +6480,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B350" t="s">
         <v>351</v>
@@ -6488,7 +6491,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B351" t="s">
         <v>352</v>
@@ -6499,29 +6502,29 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B352" t="s">
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>353</v>
+        <v>680</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B353" t="s">
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>680</v>
+        <v>354</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B354" t="s">
         <v>355</v>
@@ -6532,18 +6535,18 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B355" t="s">
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>356</v>
+        <v>682</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B356" t="s">
         <v>357</v>
@@ -6554,7 +6557,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B357" t="s">
         <v>358</v>
@@ -6565,7 +6568,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B358" t="s">
         <v>359</v>
@@ -6576,7 +6579,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B359" t="s">
         <v>360</v>
@@ -6587,51 +6590,51 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B360" t="s">
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>682</v>
+        <v>361</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B361" t="s">
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>362</v>
+        <v>683</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B362" t="s">
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>683</v>
+        <v>363</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B363" t="s">
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>364</v>
+        <v>684</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B364" t="s">
         <v>365</v>
@@ -6642,7 +6645,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B365" t="s">
         <v>366</v>
@@ -6653,7 +6656,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B366" t="s">
         <v>367</v>
@@ -6664,7 +6667,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B367" t="s">
         <v>368</v>
@@ -6675,29 +6678,29 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B368" t="s">
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>603</v>
+        <v>369</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B369" t="s">
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>370</v>
+        <v>604</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B370" t="s">
         <v>371</v>
@@ -6708,7 +6711,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B371" t="s">
         <v>372</v>
@@ -6719,7 +6722,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B372" t="s">
         <v>373</v>
@@ -6730,7 +6733,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B373" t="s">
         <v>374</v>
@@ -6741,7 +6744,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B374" t="s">
         <v>375</v>
@@ -6752,29 +6755,29 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B375" t="s">
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>684</v>
+        <v>376</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B376" t="s">
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>377</v>
+        <v>685</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>678</v>
+        <v>637</v>
       </c>
       <c r="B377" t="s">
         <v>378</v>
@@ -6785,29 +6788,29 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B378" t="s">
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>559</v>
+        <v>379</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B379" t="s">
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>685</v>
+        <v>560</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B380" t="s">
         <v>381</v>
@@ -6818,18 +6821,18 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B381" t="s">
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>382</v>
+        <v>687</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B382" t="s">
         <v>383</v>
@@ -6840,18 +6843,18 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B383" t="s">
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>687</v>
+        <v>384</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B384" t="s">
         <v>385</v>
@@ -6862,7 +6865,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B385" t="s">
         <v>386</v>
@@ -6873,7 +6876,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B386" t="s">
         <v>387</v>
@@ -6884,73 +6887,73 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B387" t="s">
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>388</v>
+        <v>691</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B388" t="s">
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>691</v>
+        <v>389</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B389" t="s">
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>390</v>
+        <v>692</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B390" t="s">
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>692</v>
+        <v>391</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B391" t="s">
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>392</v>
+        <v>693</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B392" t="s">
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>693</v>
+        <v>393</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B393" t="s">
         <v>394</v>
@@ -6961,7 +6964,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B394" t="s">
         <v>395</v>
@@ -6972,40 +6975,40 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B395" t="s">
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>396</v>
+        <v>696</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B396" t="s">
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>696</v>
+        <v>397</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B397" t="s">
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B398" t="s">
         <v>399</v>
@@ -7016,18 +7019,18 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B399" t="s">
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>400</v>
+        <v>698</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B400" t="s">
         <v>401</v>
@@ -7038,7 +7041,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B401" t="s">
         <v>402</v>
@@ -7049,7 +7052,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B402" t="s">
         <v>403</v>
@@ -7060,18 +7063,18 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B403" t="s">
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>698</v>
+        <v>404</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="B404" t="s">
         <v>405</v>
@@ -7082,18 +7085,18 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B405" t="s">
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>406</v>
+        <v>700</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B406" t="s">
         <v>407</v>
@@ -7104,7 +7107,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B407" t="s">
         <v>408</v>
@@ -7115,29 +7118,29 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B408" t="s">
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>700</v>
+        <v>409</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B409" t="s">
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>410</v>
+        <v>701</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B410" t="s">
         <v>411</v>
@@ -7148,7 +7151,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B411" t="s">
         <v>412</v>
@@ -7159,7 +7162,7 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B412" t="s">
         <v>413</v>
@@ -7170,62 +7173,62 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B413" t="s">
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>701</v>
+        <v>414</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B414" t="s">
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>415</v>
+        <v>702</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B415" t="s">
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>702</v>
+        <v>416</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B416" t="s">
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B417" t="s">
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>703</v>
+        <v>669</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B418" t="s">
         <v>419</v>
@@ -7236,18 +7239,18 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B419" t="s">
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>420</v>
+        <v>705</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B420" t="s">
         <v>421</v>
@@ -7258,7 +7261,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B421" t="s">
         <v>422</v>
@@ -7269,29 +7272,29 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B422" t="s">
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>705</v>
+        <v>423</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B423" t="s">
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>424</v>
+        <v>706</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B424" t="s">
         <v>425</v>
@@ -7302,29 +7305,29 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B425" t="s">
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>706</v>
+        <v>426</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B426" t="s">
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>427</v>
+        <v>707</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B427" t="s">
         <v>428</v>
@@ -7335,18 +7338,18 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B428" t="s">
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>707</v>
+        <v>429</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B429" t="s">
         <v>430</v>
@@ -7357,40 +7360,40 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B430" t="s">
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>431</v>
+        <v>709</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B431" t="s">
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>709</v>
+        <v>432</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B432" t="s">
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>433</v>
+        <v>710</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B433" t="s">
         <v>434</v>
@@ -7401,7 +7404,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B434" t="s">
         <v>435</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B435" t="s">
         <v>436</v>
@@ -7423,7 +7426,7 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B436" t="s">
         <v>437</v>
@@ -7434,29 +7437,29 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B437" t="s">
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>710</v>
+        <v>438</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B438" t="s">
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>439</v>
+        <v>711</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B439" t="s">
         <v>440</v>
@@ -7467,7 +7470,7 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B440" t="s">
         <v>441</v>
@@ -7478,18 +7481,18 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B441" t="s">
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>711</v>
+        <v>442</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B442" t="s">
         <v>443</v>
@@ -7500,18 +7503,18 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B443" t="s">
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>444</v>
+        <v>713</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B444" t="s">
         <v>445</v>
@@ -7522,7 +7525,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B445" t="s">
         <v>446</v>
@@ -7533,51 +7536,51 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B446" t="s">
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>713</v>
+        <v>447</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B447" t="s">
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>448</v>
+        <v>714</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B448" t="s">
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>714</v>
+        <v>449</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B449" t="s">
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>450</v>
+        <v>715</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B450" t="s">
         <v>451</v>
@@ -7588,29 +7591,29 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B451" t="s">
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>715</v>
+        <v>452</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B452" t="s">
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>453</v>
+        <v>716</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B453" t="s">
         <v>454</v>
@@ -7621,62 +7624,62 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B454" t="s">
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>716</v>
+        <v>455</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B455" t="s">
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>456</v>
+        <v>717</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="B456" t="s">
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>717</v>
+        <v>457</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B457" t="s">
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>458</v>
+        <v>718</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B458" t="s">
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>718</v>
+        <v>459</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B459" t="s">
         <v>460</v>
@@ -7687,7 +7690,7 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B460" t="s">
         <v>461</v>
@@ -7698,29 +7701,29 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B461" t="s">
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>462</v>
+        <v>721</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B462" t="s">
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>721</v>
+        <v>463</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B463" t="s">
         <v>464</v>
@@ -7731,62 +7734,62 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B464" t="s">
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>465</v>
+        <v>723</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B465" t="s">
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>723</v>
+        <v>466</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B466" t="s">
         <v>467</v>
       </c>
       <c r="C466" t="s">
-        <v>467</v>
+        <v>724</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B467" t="s">
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>724</v>
+        <v>468</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B468" t="s">
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>469</v>
+        <v>725</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B469" t="s">
         <v>470</v>
@@ -7797,7 +7800,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B470" t="s">
         <v>471</v>
@@ -7808,7 +7811,7 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B471" t="s">
         <v>472</v>
@@ -7819,29 +7822,29 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B472" t="s">
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>725</v>
+        <v>473</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B473" t="s">
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>474</v>
+        <v>726</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B474" t="s">
         <v>475</v>
@@ -7852,51 +7855,51 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B475" t="s">
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>726</v>
+        <v>476</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B476" t="s">
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>477</v>
+        <v>727</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B477" t="s">
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>727</v>
+        <v>478</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B478" t="s">
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>479</v>
+        <v>728</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B479" t="s">
         <v>480</v>
@@ -7907,7 +7910,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B480" t="s">
         <v>481</v>
@@ -7918,7 +7921,7 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B481" t="s">
         <v>482</v>
@@ -7929,29 +7932,29 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B482" t="s">
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>594</v>
+        <v>483</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B483" t="s">
         <v>484</v>
       </c>
       <c r="C483" t="s">
-        <v>484</v>
+        <v>595</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B484" t="s">
         <v>485</v>
@@ -7962,29 +7965,29 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B485" t="s">
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>728</v>
+        <v>486</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B486" t="s">
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>487</v>
+        <v>729</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B487" t="s">
         <v>488</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="B488" t="s">
         <v>489</v>
@@ -8006,7 +8009,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B489" t="s">
         <v>490</v>
@@ -8017,18 +8020,18 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B490" t="s">
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>729</v>
+        <v>491</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B491" t="s">
         <v>492</v>
@@ -8039,7 +8042,7 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B492" t="s">
         <v>493</v>
@@ -8050,18 +8053,18 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B493" t="s">
         <v>494</v>
       </c>
       <c r="C493" t="s">
-        <v>494</v>
+        <v>732</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B494" t="s">
         <v>495</v>
@@ -8072,7 +8075,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B495" t="s">
         <v>496</v>
@@ -8083,7 +8086,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B496" t="s">
         <v>497</v>
@@ -8094,7 +8097,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B497" t="s">
         <v>498</v>
@@ -8105,7 +8108,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B498" t="s">
         <v>499</v>
@@ -8116,7 +8119,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B499" t="s">
         <v>500</v>
@@ -8127,18 +8130,18 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B500" t="s">
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>732</v>
+        <v>501</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B501" t="s">
         <v>502</v>
@@ -8149,7 +8152,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B502" t="s">
         <v>503</v>
@@ -8160,7 +8163,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B503" t="s">
         <v>504</v>
@@ -8171,7 +8174,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B504" t="s">
         <v>505</v>
@@ -8182,40 +8185,40 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B505" t="s">
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B506" t="s">
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>507</v>
+        <v>729</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B507" t="s">
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>737</v>
+        <v>508</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B508" t="s">
         <v>509</v>
@@ -8226,29 +8229,29 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B509" t="s">
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>510</v>
+        <v>739</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B510" t="s">
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>739</v>
+        <v>511</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B511" t="s">
         <v>512</v>
@@ -8259,7 +8262,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B512" t="s">
         <v>513</v>
@@ -8270,29 +8273,29 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B513" t="s">
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>514</v>
+        <v>742</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B514" t="s">
         <v>515</v>
       </c>
       <c r="C514" t="s">
-        <v>742</v>
+        <v>515</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B515" t="s">
         <v>516</v>
@@ -8303,18 +8306,18 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B516" t="s">
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>517</v>
+        <v>744</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B517" t="s">
         <v>518</v>
@@ -8325,7 +8328,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B518" t="s">
         <v>519</v>
@@ -8336,7 +8339,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B519" t="s">
         <v>520</v>
@@ -8347,7 +8350,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B520" t="s">
         <v>521</v>
@@ -8358,7 +8361,7 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B521" t="s">
         <v>522</v>
@@ -8369,7 +8372,7 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B522" t="s">
         <v>523</v>
@@ -8380,18 +8383,18 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B523" t="s">
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>744</v>
+        <v>524</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B524" t="s">
         <v>525</v>
@@ -8402,7 +8405,7 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B525" t="s">
         <v>526</v>
@@ -8413,18 +8416,18 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B526" t="s">
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>527</v>
+        <v>747</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B527" t="s">
         <v>528</v>
@@ -8435,7 +8438,7 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B528" t="s">
         <v>529</v>
@@ -8446,29 +8449,29 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B529" t="s">
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>747</v>
+        <v>530</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B530" t="s">
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>531</v>
+        <v>748</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B531" t="s">
         <v>532</v>
@@ -8479,18 +8482,18 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B532" t="s">
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>748</v>
+        <v>533</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B533" t="s">
         <v>534</v>
@@ -8501,18 +8504,18 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534">
-        <v>971</v>
+        <v>944</v>
       </c>
       <c r="B534" t="s">
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>535</v>
+        <v>750</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B535" t="s">
         <v>536</v>
@@ -8523,7 +8526,7 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B536" t="s">
         <v>537</v>
@@ -8534,7 +8537,7 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B537" t="s">
         <v>538</v>
@@ -8545,29 +8548,29 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B538" t="s">
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>750</v>
+        <v>539</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B539" t="s">
         <v>540</v>
       </c>
       <c r="C539" t="s">
-        <v>540</v>
+        <v>751</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B540" t="s">
         <v>541</v>
@@ -8578,51 +8581,51 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B541" t="s">
         <v>542</v>
       </c>
       <c r="C541" t="s">
-        <v>751</v>
+        <v>542</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B542" t="s">
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B543" t="s">
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>752</v>
+        <v>544</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B544" t="s">
         <v>545</v>
       </c>
       <c r="C544" t="s">
-        <v>545</v>
+        <v>753</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="B545" t="s">
         <v>546</v>
@@ -8633,7 +8636,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B546" t="s">
         <v>547</v>
@@ -8644,35 +8647,46 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B547" t="s">
         <v>548</v>
       </c>
       <c r="C547" t="s">
-        <v>712</v>
+        <v>548</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B548" t="s">
         <v>549</v>
       </c>
       <c r="C548" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B549" t="s">
         <v>550</v>
       </c>
       <c r="C549" t="s">
-        <v>597</v>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550">
+        <v>997</v>
+      </c>
+      <c r="B550" t="s">
+        <v>551</v>
+      </c>
+      <c r="C550" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
